--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,102 +445,125 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nombre</t>
+          <t>Nombres</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Apellidos</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>tipo_persona</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>antecedentes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>migracion</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sri_renta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sri_deudas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sri_ruc</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ofac</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>funcionjudicial</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>fiscalia</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>interpol</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>antecedentes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>migracion</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sri_renta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sri_deudas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sri_ruc</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ofac</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>funcionjudicial</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>fiscalia</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>supercias</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>trabajo</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>contraloria</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>dependencia</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>declaraciones</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0925647851</t>
+          <t>0908894934</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alfredo Gustavo Barandearan Gutierrez</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>37598</v>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>Alfredo Javier</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Barandearan Oyague</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>24882</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
@@ -549,68 +572,122 @@
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>sin procesos</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>sin delitos</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>sin alerta</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0 registros encontrados</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0908894934</t>
+          <t>0914788245</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alfredo Javier Barandearan Oyagure</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>24882</v>
-      </c>
-      <c r="D3" t="inlineStr">
+          <t>Melania Sissi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Gutierrez Gavilanes</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>26669</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>sin procesos</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>sin delitos</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>sin alerta</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0 registros encontrados</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0914788245</t>
+          <t>0990071969001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Melania Sissi Gutierrez Gavilanes</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>26669</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>EMPAGRAM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Juridica</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -621,70 +698,120 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>10 procesos encontrados</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>sin delitos</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0990071969001</t>
+          <t>0929029395</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EMPAGRAM</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>36526</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Juridica</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Ariana Cristina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Barandearan Gutierrez</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>38789</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>sin procesos</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>sin delitos</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>sin alerta</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0 registros encontrados</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0929029395</t>
+          <t>1309022935</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ariana Cristina Barandearan Gutierrez</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>38789</v>
-      </c>
-      <c r="D6" t="inlineStr">
+          <t>Jose Adolfo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Macias Villamar</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>29128</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Natural</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
@@ -693,11 +820,215 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>10 procesos encontrados</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Nro. 170101811052723 – SOSPECHOSO; Nro. 170101811052723 – PROCESADO; Nro. 170101811052723 – PROCESADO; Nro. 170101811052723 – SOSPECHOSO; Nro. 170101811052723 – SOSPECHOSO; Nro. 170101811052723 – SOSPECHOSO; Nro. 170101811052723 – SOSPECHOSO; Nro. 170101811052723 – SOSPECHOSO; Nro. 170101811052723 – SOSPECHOSO; Nro. 170101811052723 – PROCESADO; Nro. 170101811052723 – SOSPECHOSO; Nro. 170101811052723 – SOSPECHOSO; Nro. 170101811052723 – SOSPECHOSO; Nro. 170101811052723 – SOSPECHOSO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>ALERTA INTERPOL</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0 registros encontrados</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1391791119001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Las Olas SA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Juridica</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1 procesos encontrados</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>sin delitos</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0908890452</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roberto David</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Barandearan Oyague</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>28432</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>sin procesos</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>sin delitos</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>sin alerta</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>11 registros encontrados</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1709705675</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mary Paz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Herrera Oramas</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>25441</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3 procesos encontrados</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>sin delitos</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>sin alerta</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>7 registros encontrados</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
